--- a/TestFiles/png/pngdata.xlsx
+++ b/TestFiles/png/pngdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namro_000\Documents\GitHub\TeamOne\TestFiles\png\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lauren\Documents\GitHub\TeamOne\TestFiles\png\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="15075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="15075" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Boxes" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>does not open</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t xml:space="preserve">approx scale basis? </t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
@@ -397,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
@@ -1057,115 +1069,404 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <f>AVERAGE(B2:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ref="C12:S12" si="0">AVERAGE(C2:C11)</f>
+        <v>3.1</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <f>MEDIAN(B2:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:S13" si="1">MEDIAN(C2:C11)</f>
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <f>_xlfn.MODE.MULT(B2:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:S14" si="2">_xlfn.MODE.MULT(C2:C11)</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <f>COUNTIF(B2:B11,"&lt;&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <f>COUNTIF(C2:C11,"&lt;&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ref="D15:S15" si="3">COUNTIF(D2:D11,"&lt;&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1177,15 +1478,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:K24"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="19" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1835,7 +2137,312 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B2:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:S12" si="0">AVERAGE(C2:C11)</f>
+        <v>2.1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f>MEDIAN(B2:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:S13" si="1">MEDIAN(C2:C11)</f>
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f>_xlfn.MODE.MULT(B2:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:S14" si="2">_xlfn.MODE.MULT(C2:C11)</f>
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIF(B2:B11,"&lt;&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f>COUNTIF(C2:C11,"&lt;&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:S15" si="3">COUNTIF(D2:D11,"&lt;&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1844,10 +2451,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:G25"/>
+      <selection activeCell="B15" sqref="B15:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,8 +3106,312 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B2:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:S12" si="0">AVERAGE(C2:C11)</f>
+        <v>4.3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f>MEDIAN(B2:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:S13" si="1">MEDIAN(C2:C11)</f>
+        <v>4.5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f>_xlfn.MODE.MULT(B2:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:S14" si="2">_xlfn.MODE.MULT(C2:C11)</f>
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIF(B2:B11,"&lt;&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f>COUNTIF(C2:C11,"&lt;&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:S15" si="3">COUNTIF(D2:D11,"&lt;&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2509,10 +3420,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3164,8 +4075,312 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B2:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:S12" si="0">AVERAGE(C2:C11)</f>
+        <v>3.8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f>MEDIAN(B2:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:S13" si="1">MEDIAN(C2:C11)</f>
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f>_xlfn.MODE.MULT(B2:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:S14" si="2">_xlfn.MODE.MULT(C2:C11)</f>
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIF(B2:B11,"&lt;&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f>COUNTIF(C2:C11,"&lt;&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:S15" si="3">COUNTIF(D2:D11,"&lt;&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
